--- a/input/adatok.xlsx
+++ b/input/adatok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode_Projects\robot-ppt\script\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robots\Git\ppt_script\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9CF7C2-D64E-4539-9D4E-5AF6787EF5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE413FC-98C5-4D82-9B4E-2452BAE7C0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C307E41B-6825-4835-8943-C964F3C03E0E}"/>
+    <workbookView xWindow="-30" yWindow="-16830" windowWidth="28800" windowHeight="15375" xr2:uid="{C307E41B-6825-4835-8943-C964F3C03E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>New York</t>
   </si>
   <si>
     <t>Árvíztűrő tükörfurógép</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;age&gt;</t>
+  </si>
+  <si>
+    <t>&lt;city&gt;</t>
   </si>
 </sst>
 </file>
@@ -82,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -98,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,29 +403,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AD049B-E00E-43DE-A870-76CE330A6857}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/input/adatok.xlsx
+++ b/input/adatok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robots\Git\ppt_script\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE413FC-98C5-4D82-9B4E-2452BAE7C0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91BBF3E-364E-42D2-BBB7-648335854DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="-16830" windowWidth="28800" windowHeight="15375" xr2:uid="{C307E41B-6825-4835-8943-C964F3C03E0E}"/>
   </bookViews>
@@ -44,23 +44,30 @@
     <t>Árvíztűrő tükörfurógép</t>
   </si>
   <si>
-    <t>&lt;name&gt;</t>
+    <t>adat1</t>
   </si>
   <si>
-    <t>&lt;age&gt;</t>
+    <t>adat2</t>
   </si>
   <si>
-    <t>&lt;city&gt;</t>
+    <t>adat3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -406,7 +413,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +446,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/input/adatok.xlsx
+++ b/input/adatok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robots\Git\ppt_script\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode_Projects\ppt_script\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91BBF3E-364E-42D2-BBB7-648335854DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55918C44-7F76-4B7F-82A8-47982BDCE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16830" windowWidth="28800" windowHeight="15375" xr2:uid="{C307E41B-6825-4835-8943-C964F3C03E0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C307E41B-6825-4835-8943-C964F3C03E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>New York</t>
   </si>
@@ -51,6 +51,36 @@
   </si>
   <si>
     <t>adat3</t>
+  </si>
+  <si>
+    <t>1. adatsor</t>
+  </si>
+  <si>
+    <t>2. adatsor</t>
+  </si>
+  <si>
+    <t>kat1</t>
+  </si>
+  <si>
+    <t>kat2</t>
+  </si>
+  <si>
+    <t>kat3</t>
+  </si>
+  <si>
+    <t>kat4</t>
+  </si>
+  <si>
+    <t>Sajt</t>
+  </si>
+  <si>
+    <t>Lecsó</t>
+  </si>
+  <si>
+    <t>Érdekesebb title</t>
+  </si>
+  <si>
+    <t>Diagram cím</t>
   </si>
 </sst>
 </file>
@@ -94,11 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,18 +442,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AD049B-E00E-43DE-A870-76CE330A6857}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -429,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -437,12 +469,68 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/input/adatok.xlsx
+++ b/input/adatok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode_Projects\ppt_script\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robots\Git\ppt_script\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55918C44-7F76-4B7F-82A8-47982BDCE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1DD3F-211F-4CF3-B6AB-13F646CE95DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C307E41B-6825-4835-8943-C964F3C03E0E}"/>
+    <workbookView xWindow="11145" yWindow="-17340" windowWidth="28800" windowHeight="15375" xr2:uid="{C307E41B-6825-4835-8943-C964F3C03E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>New York</t>
   </si>
@@ -59,18 +59,6 @@
     <t>2. adatsor</t>
   </si>
   <si>
-    <t>kat1</t>
-  </si>
-  <si>
-    <t>kat2</t>
-  </si>
-  <si>
-    <t>kat3</t>
-  </si>
-  <si>
-    <t>kat4</t>
-  </si>
-  <si>
     <t>Sajt</t>
   </si>
   <si>
@@ -81,6 +69,39 @@
   </si>
   <si>
     <t>Diagram cím</t>
+  </si>
+  <si>
+    <t>Kolbász, Krumpli, Hagyma, Paprika</t>
+  </si>
+  <si>
+    <t>Anya receptje</t>
+  </si>
+  <si>
+    <t>Mama receptje</t>
+  </si>
+  <si>
+    <t>COLUMN1_title</t>
+  </si>
+  <si>
+    <t>COLUMN1_categories</t>
+  </si>
+  <si>
+    <t>COLUMN1_series1</t>
+  </si>
+  <si>
+    <t>COLUMN1_series1_data</t>
+  </si>
+  <si>
+    <t>COLUMN1_series2</t>
+  </si>
+  <si>
+    <t>COLUMN1_series2_data</t>
+  </si>
+  <si>
+    <t>2.6, 3.4, 4.5</t>
+  </si>
+  <si>
+    <t>4.5, 2.6, 3.4</t>
   </si>
 </sst>
 </file>
@@ -130,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,18 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AD049B-E00E-43DE-A870-76CE330A6857}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -461,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -469,7 +491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -477,60 +499,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
